--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,125 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E8" s="3">
         <v>22400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>22400</v>
+      </c>
+      <c r="G8" s="3">
         <v>20300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>18300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>18200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>17400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>33400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>16700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>14700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>15000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>14200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>12800</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F18" s="3">
         <v>17200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>15900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>14600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>14400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>14000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>27300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>13900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>12300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>10500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1210,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-11100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-10300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-10200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-9600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-18700</v>
       </c>
       <c r="J20" s="3">
         <v>-9600</v>
       </c>
       <c r="K20" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="M20" s="3">
         <v>-10400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-7500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F21" s="3">
         <v>6400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>5900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>5100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>9200</v>
       </c>
       <c r="J21" s="3">
         <v>4600</v>
       </c>
       <c r="K21" s="3">
+        <v>9200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M21" s="3">
         <v>1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>5200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>3300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1347,108 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F23" s="3">
         <v>6100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>8700</v>
       </c>
       <c r="J23" s="3">
         <v>4300</v>
       </c>
       <c r="K23" s="3">
+        <v>8700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F26" s="3">
         <v>4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>6100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>700</v>
       </c>
       <c r="L26" s="3">
         <v>3000</v>
       </c>
       <c r="M26" s="3">
+        <v>700</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O26" s="3">
         <v>2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F27" s="3">
         <v>4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>6100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>700</v>
       </c>
       <c r="L27" s="3">
         <v>3000</v>
       </c>
       <c r="M27" s="3">
+        <v>700</v>
+      </c>
+      <c r="N27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O27" s="3">
         <v>2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1528,35 +1649,41 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1400</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F32" s="3">
         <v>11100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>10300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>10200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>9600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>9600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>18700</v>
       </c>
       <c r="J32" s="3">
         <v>9600</v>
       </c>
       <c r="K32" s="3">
+        <v>18700</v>
+      </c>
+      <c r="L32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="M32" s="3">
         <v>10400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>7500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F33" s="3">
         <v>4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>6100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-600</v>
       </c>
       <c r="L33" s="3">
         <v>3000</v>
       </c>
       <c r="M33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O33" s="3">
         <v>2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F35" s="3">
         <v>4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>6100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-600</v>
       </c>
       <c r="L35" s="3">
         <v>3000</v>
       </c>
       <c r="M35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O35" s="3">
         <v>2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,38 +2052,40 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F41" s="3">
         <v>11100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>12300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>9800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,38 +2095,44 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>165300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>104300</v>
+      </c>
+      <c r="F42" s="3">
         <v>44000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>67300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>26700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>24300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>29700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>58900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>35500</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,8 +2142,14 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2236,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2283,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,8 +2330,14 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,37 +2377,43 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F48" s="3">
         <v>6700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2800</v>
       </c>
       <c r="J48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L48" s="3">
+        <v>2800</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2209,8 +2424,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,38 +2565,44 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="E52" s="3">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="F52" s="3">
         <v>3600</v>
       </c>
       <c r="G52" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H52" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I52" s="3">
         <v>3700</v>
       </c>
       <c r="J52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,38 +2659,44 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1507800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1428500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1311400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1234200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1123800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1105100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1072900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1067800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1017600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2706,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,38 +2748,40 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2791,14 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,37 +2838,43 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2612,8 +2885,14 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,8 +2932,14 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2674,7 +2959,7 @@
         <v>15400</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="J61" s="3">
         <v>15400</v>
@@ -2683,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2694,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,38 +3167,44 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1371800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1295200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1183600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1111000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1005200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>990500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>966200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>980800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>934200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3214,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,38 +3421,44 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>81600</v>
+      </c>
+      <c r="F72" s="3">
         <v>77100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>72900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>68900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>65700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>62500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>59300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>56200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3468,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,38 +3609,44 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>133300</v>
+      </c>
+      <c r="F76" s="3">
         <v>127800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>123100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>118600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>114600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>106700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>87000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>83400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3656,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F81" s="3">
         <v>4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>6100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-600</v>
       </c>
       <c r="L81" s="3">
         <v>3000</v>
       </c>
       <c r="M81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O81" s="3">
         <v>2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,13 +3825,15 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -3448,31 +3845,37 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-14800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-21500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>10400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>15100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>12900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,13 +4173,15 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -3748,35 +4189,41 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3">
         <v>-700</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-81700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-42500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-6400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-43400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-33800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-32000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-12000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-16700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-32300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>109700</v>
+      </c>
+      <c r="F100" s="3">
         <v>72100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>105200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>8300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>27000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>33300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-10600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>22700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>16600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>59700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-24500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>41200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-28000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>16400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>12700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-10900</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E8" s="3">
         <v>21700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>22400</v>
       </c>
       <c r="F8" s="3">
         <v>22400</v>
       </c>
       <c r="G8" s="3">
+        <v>22400</v>
+      </c>
+      <c r="H8" s="3">
         <v>20300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12800</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E18" s="3">
         <v>17400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-11100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-9600</v>
       </c>
       <c r="J20" s="3">
         <v>-9600</v>
       </c>
       <c r="K20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="L20" s="3">
         <v>-18700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E21" s="3">
         <v>4500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>3300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1600</v>
       </c>
       <c r="F24" s="3">
         <v>1600</v>
       </c>
       <c r="G24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1900</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,11 +1716,11 @@
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
@@ -1667,12 +1728,12 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1400</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E32" s="3">
         <v>13400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>11100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>9600</v>
       </c>
       <c r="J32" s="3">
         <v>9600</v>
       </c>
       <c r="K32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="L32" s="3">
         <v>18700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E41" s="3">
         <v>9600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,41 +2188,44 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E42" s="3">
         <v>165300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>104300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>44000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>67300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>26700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>24300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>29700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>58900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,31 +2488,34 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2800</v>
       </c>
       <c r="K48" s="3">
         <v>2800</v>
@@ -2415,8 +2523,8 @@
       <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>2800</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,28 +2688,31 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>4000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3700</v>
       </c>
       <c r="J52" s="3">
         <v>3700</v>
@@ -2601,11 +2721,11 @@
         <v>3700</v>
       </c>
       <c r="L52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1822400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1507800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1428500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1311400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1234200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1123800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1105100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1072900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1067800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1017600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +2880,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2000</v>
       </c>
       <c r="H57" s="3">
         <v>2000</v>
       </c>
       <c r="I57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,29 +2978,32 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2876,8 +3013,8 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,13 +3078,16 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15400</v>
+        <v>17400</v>
       </c>
       <c r="E61" s="3">
         <v>15400</v>
@@ -2965,14 +3108,14 @@
         <v>15400</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>15400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1680300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1371800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1295200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1183600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1111000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1005200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>990500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>966200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>980800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>934200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E72" s="3">
         <v>84400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>81600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>77100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>72900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>68900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>65700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>62500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>59300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>56200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>142100</v>
+      </c>
+      <c r="E76" s="3">
         <v>136100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>133300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>127800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>123100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>118600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>114600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>106700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>87000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>83400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,16 +4025,17 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -3851,31 +4050,34 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E89" s="3">
         <v>3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,17 +4395,18 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4195,35 +4416,38 @@
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-400</v>
       </c>
       <c r="M91" s="3">
         <v>-400</v>
       </c>
       <c r="N91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-249500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-58200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-81700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-42500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-33800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>304400</v>
+      </c>
+      <c r="E100" s="3">
         <v>73000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>109700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>72100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>105200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>27000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>33300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>22700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E102" s="3">
         <v>60000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>59700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>41200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-28000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10900</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,139 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E8" s="3">
         <v>22000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>22400</v>
       </c>
       <c r="G8" s="3">
         <v>22400</v>
       </c>
       <c r="H8" s="3">
+        <v>22400</v>
+      </c>
+      <c r="I8" s="3">
         <v>20300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12800</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E18" s="3">
         <v>18600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>27300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-11100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-9600</v>
       </c>
       <c r="K20" s="3">
         <v>-9600</v>
       </c>
       <c r="L20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="M20" s="3">
         <v>-18700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7500</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E21" s="3">
         <v>6900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>3300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E23" s="3">
         <v>6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1600</v>
       </c>
       <c r="G24" s="3">
         <v>1600</v>
       </c>
       <c r="H24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E26" s="3">
         <v>4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1719,11 +1780,11 @@
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
@@ -1731,12 +1792,12 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1400</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E32" s="3">
         <v>12100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>11100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9600</v>
       </c>
       <c r="K32" s="3">
         <v>9600</v>
       </c>
       <c r="L32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="M32" s="3">
         <v>18700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7500</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2227,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E41" s="3">
         <v>15600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,44 +2278,47 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>185400</v>
+      </c>
+      <c r="E42" s="3">
         <v>184100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>165300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>104300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>44000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>67300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>26700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>24300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>58900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>35500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,34 +2596,37 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2800</v>
       </c>
       <c r="L48" s="3">
         <v>2800</v>
@@ -2526,8 +2634,8 @@
       <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>2800</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,22 +2820,22 @@
         <v>3600</v>
       </c>
       <c r="E52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F52" s="3">
         <v>4000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3700</v>
       </c>
       <c r="K52" s="3">
         <v>3700</v>
@@ -2724,11 +2844,11 @@
         <v>3700</v>
       </c>
       <c r="M52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2914,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1879000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1822400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1507800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1428500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1311400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1234200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1123800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1105100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1072900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1067800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1017600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3011,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2000</v>
       </c>
       <c r="I57" s="3">
         <v>2000</v>
       </c>
       <c r="J57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,32 +3115,35 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,8 +3153,8 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3031,8 +3168,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,16 +3221,19 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E61" s="3">
         <v>17400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>15400</v>
       </c>
       <c r="F61" s="3">
         <v>15400</v>
@@ -3111,14 +3254,14 @@
         <v>15400</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>15400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3486,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1729700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1680300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1371800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1295200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1183600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1111000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1005200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>990500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>966200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>980800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>934200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3772,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E72" s="3">
         <v>89200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>84400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>81600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>77100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>72900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>68900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>65700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>62500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>59300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>56200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3984,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E76" s="3">
         <v>142100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>136100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>133300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>127800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>123100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>118600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>114600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>106700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>87000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>83400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,19 +4224,20 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -4053,31 +4252,34 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-21500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,20 +4616,21 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4419,35 +4640,38 @@
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-400</v>
       </c>
       <c r="N91" s="3">
         <v>-400</v>
       </c>
       <c r="O91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-249500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-58200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-81700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-42500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E100" s="3">
         <v>304400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>73000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>109700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>72100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>105200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>27000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>33300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>22700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>16600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>24800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>60000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>59700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>41200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-28000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E8" s="3">
         <v>25200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>21200</v>
+      </c>
+      <c r="I8" s="3">
         <v>22400</v>
       </c>
-      <c r="H8" s="3">
-        <v>22400</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12800</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E18" s="3">
         <v>22100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17400</v>
       </c>
-      <c r="G18" s="3">
-        <v>17100</v>
-      </c>
       <c r="H18" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I18" s="3">
         <v>17200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>27300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-10500</v>
-      </c>
       <c r="H20" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-11100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-9600</v>
       </c>
       <c r="L20" s="3">
         <v>-9600</v>
       </c>
       <c r="M20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="N20" s="3">
         <v>-18700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7500</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E21" s="3">
         <v>12100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>3300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E23" s="3">
         <v>11600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1600</v>
       </c>
       <c r="H24" s="3">
         <v>1600</v>
       </c>
       <c r="I24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E26" s="3">
         <v>8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1900</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1783,11 +1843,11 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -1795,12 +1855,12 @@
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1400</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E32" s="3">
         <v>10500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13400</v>
       </c>
-      <c r="G32" s="3">
-        <v>10500</v>
-      </c>
       <c r="H32" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I32" s="3">
         <v>11100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>9600</v>
       </c>
       <c r="L32" s="3">
         <v>9600</v>
       </c>
       <c r="M32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="N32" s="3">
         <v>18700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7500</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E33" s="3">
         <v>8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E35" s="3">
         <v>8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E41" s="3">
         <v>20100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,47 +2367,50 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E42" s="3">
         <v>185400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>184100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>165300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>104300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>44000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>67300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>26700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>58900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>35500</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,37 +2703,40 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5600</v>
       </c>
-      <c r="G48" s="3">
-        <v>6100</v>
-      </c>
       <c r="H48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I48" s="3">
         <v>6700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2800</v>
       </c>
       <c r="M48" s="3">
         <v>2800</v>
@@ -2637,8 +2744,8 @@
       <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>2800</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,34 +2927,37 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3600</v>
+        <v>6800</v>
       </c>
       <c r="E52" s="3">
         <v>3600</v>
       </c>
       <c r="F52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G52" s="3">
         <v>4000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3700</v>
       </c>
       <c r="L52" s="3">
         <v>3700</v>
@@ -2847,11 +2966,11 @@
         <v>3700</v>
       </c>
       <c r="N52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O52" s="3">
         <v>3600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1876600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1879000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1822400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1507800</v>
       </c>
-      <c r="G54" s="3">
-        <v>1428500</v>
-      </c>
       <c r="H54" s="3">
+        <v>1427600</v>
+      </c>
+      <c r="I54" s="3">
         <v>1311400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1234200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1123800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1105100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1072900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1067800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1017600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2000</v>
       </c>
       <c r="J57" s="3">
         <v>2000</v>
       </c>
       <c r="K57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,35 +3251,38 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3156,8 +3292,8 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3171,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,19 +3363,22 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E61" s="3">
         <v>17500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>15400</v>
       </c>
       <c r="G61" s="3">
         <v>15400</v>
@@ -3257,14 +3399,14 @@
         <v>15400</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>15400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1717300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1729700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1680300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1371800</v>
       </c>
-      <c r="G66" s="3">
-        <v>1295200</v>
-      </c>
       <c r="H66" s="3">
+        <v>1294300</v>
+      </c>
+      <c r="I66" s="3">
         <v>1183600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1111000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1005200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>990500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>966200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>980800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>934200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E72" s="3">
         <v>97600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>89200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>84400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>81600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>77100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>72900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>68900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>65700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>62500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>59300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>56200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>159300</v>
+      </c>
+      <c r="E76" s="3">
         <v>149400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>142100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>136100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>133300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>127800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>123100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>118600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>114600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>106700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>87000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>83400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E81" s="3">
         <v>8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,22 +4422,23 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -4255,31 +4453,34 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-21500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,23 +4836,24 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4643,35 +4863,38 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-400</v>
       </c>
       <c r="O91" s="3">
         <v>-400</v>
       </c>
       <c r="P91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-249500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-58200</v>
-      </c>
       <c r="H94" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-81700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-42500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E100" s="3">
         <v>48700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>304400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>73000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>109700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>72100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>105200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>27000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>33300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>22700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E102" s="3">
         <v>5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>60000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>59700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>41200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-28000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E8" s="3">
         <v>28300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12800</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
-        <v>4300</v>
-      </c>
       <c r="H17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I17" s="3">
         <v>5300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E18" s="3">
         <v>25700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18600</v>
       </c>
-      <c r="G18" s="3">
-        <v>17400</v>
-      </c>
       <c r="H18" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I18" s="3">
         <v>15900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>27300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-13400</v>
-      </c>
       <c r="H20" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="I20" s="3">
         <v>-9300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-9600</v>
       </c>
       <c r="M20" s="3">
         <v>-9600</v>
       </c>
       <c r="N20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="O20" s="3">
         <v>-18700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7500</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E21" s="3">
         <v>12500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>3300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E23" s="3">
         <v>13000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1600</v>
       </c>
       <c r="I24" s="3">
         <v>1600</v>
       </c>
       <c r="J24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E26" s="3">
         <v>9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1900</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E27" s="3">
         <v>9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,40 +1875,43 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
@@ -1858,12 +1919,12 @@
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E32" s="3">
         <v>12700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12100</v>
       </c>
-      <c r="G32" s="3">
-        <v>13400</v>
-      </c>
       <c r="H32" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I32" s="3">
         <v>9300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>9600</v>
       </c>
       <c r="M32" s="3">
         <v>9600</v>
       </c>
       <c r="N32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="O32" s="3">
         <v>18700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7500</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E33" s="3">
         <v>9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E35" s="3">
         <v>9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2400,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E41" s="3">
         <v>18500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,50 +2457,53 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>295600</v>
+      </c>
+      <c r="E42" s="3">
         <v>128500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>185400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>184100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>165300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>104300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>44000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>67300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>24300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>58900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>35500</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,40 +2811,43 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>2800</v>
       </c>
       <c r="N48" s="3">
         <v>2800</v>
@@ -2747,8 +2855,8 @@
       <c r="O48" s="3">
         <v>2800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>2800</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,37 +3047,40 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E52" s="3">
         <v>6800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3600</v>
       </c>
       <c r="F52" s="3">
         <v>3600</v>
       </c>
       <c r="G52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H52" s="3">
         <v>4000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3700</v>
       </c>
       <c r="M52" s="3">
         <v>3700</v>
@@ -2969,11 +3089,11 @@
         <v>3700</v>
       </c>
       <c r="O52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P52" s="3">
         <v>3600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3165,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2091900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1876600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1879000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1822400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1507800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1427600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1311400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1234200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1123800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1105100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1072900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1067800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1017600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,50 +3272,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2000</v>
       </c>
       <c r="K57" s="3">
         <v>2000</v>
       </c>
       <c r="L57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,38 +3388,41 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3432,8 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,22 +3506,25 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E61" s="3">
         <v>14000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>15400</v>
       </c>
       <c r="H61" s="3">
         <v>15400</v>
@@ -3402,14 +3545,14 @@
         <v>15400</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>15400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3801,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1924800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1717300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1729700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1680300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1371800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1294300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1183600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1111000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1005200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>990500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>966200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>980800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>934200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4119,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>115800</v>
+      </c>
+      <c r="E72" s="3">
         <v>106900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>97600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>89200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>84400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>81600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>77100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>72900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>68900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>65700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>62500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>59300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>56200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4355,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E76" s="3">
         <v>159300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>149400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>142100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>136100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>133300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>127800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>123100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>118600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>114600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>106700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>87000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>83400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E81" s="3">
         <v>9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,25 +4621,26 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>-600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -4456,31 +4655,34 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E89" s="3">
         <v>41300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-21500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,26 +5057,27 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4866,35 +5087,38 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-400</v>
       </c>
       <c r="P91" s="3">
         <v>-400</v>
       </c>
       <c r="Q91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-92600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-86000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-249500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-57300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-81700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-42500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-33800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>209100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>48700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>304400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>73000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>109700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>72100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>105200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>27000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>33300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>22700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>171100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-58600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>60000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>59700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>41200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-28000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10900</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,159 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E8" s="3">
         <v>26600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>28300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12800</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E18" s="3">
         <v>23900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>27300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>11700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-13600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-9600</v>
       </c>
       <c r="N20" s="3">
         <v>-9600</v>
       </c>
       <c r="O20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="P20" s="3">
         <v>-18700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-10400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7500</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E21" s="3">
         <v>12600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>3300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E23" s="3">
         <v>12100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1600</v>
       </c>
       <c r="J24" s="3">
         <v>1600</v>
       </c>
       <c r="K24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E26" s="3">
         <v>9000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1900</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E27" s="3">
         <v>9000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1900</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,17 +1965,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
@@ -1922,12 +1983,12 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1400</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E32" s="3">
         <v>11800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>13600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>9600</v>
       </c>
       <c r="N32" s="3">
         <v>9600</v>
       </c>
       <c r="O32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="P32" s="3">
         <v>18700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>10400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7500</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E33" s="3">
         <v>9000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1900</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E35" s="3">
         <v>9000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1900</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,53 +2487,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E41" s="3">
         <v>22700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,53 +2547,56 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>289200</v>
+      </c>
+      <c r="E42" s="3">
         <v>295600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>128500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>185400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>184100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>165300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>104300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>44000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>67300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>26700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>24300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>58900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>35500</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,43 +2919,46 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2800</v>
       </c>
       <c r="O48" s="3">
         <v>2800</v>
@@ -2858,8 +2966,8 @@
       <c r="P48" s="3">
         <v>2800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>2800</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3059,31 +3179,31 @@
         <v>7400</v>
       </c>
       <c r="E52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F52" s="3">
         <v>6800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3600</v>
       </c>
       <c r="G52" s="3">
         <v>3600</v>
       </c>
       <c r="H52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I52" s="3">
         <v>4000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>3700</v>
       </c>
       <c r="N52" s="3">
         <v>3700</v>
@@ -3092,11 +3212,11 @@
         <v>3700</v>
       </c>
       <c r="P52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2151900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2091900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1876600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1879000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1822400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1507800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1427600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1311400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1234200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1123800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1105100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1072900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1067800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1017600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,53 +3403,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2000</v>
       </c>
       <c r="L57" s="3">
         <v>2000</v>
       </c>
       <c r="M57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,41 +3525,44 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3435,8 +3572,8 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3450,8 +3587,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,16 +3661,16 @@
         <v>12100</v>
       </c>
       <c r="E61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F61" s="3">
         <v>14000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>15400</v>
       </c>
       <c r="I61" s="3">
         <v>15400</v>
@@ -3548,14 +3691,14 @@
         <v>15400</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>15400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +3959,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1974600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1924800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1717300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1729700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1680300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1371800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1294300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1183600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1111000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1005200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>990500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>966200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>980800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>934200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,53 +4293,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E72" s="3">
         <v>115800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>106900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>97600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>89200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>84400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>81600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>77100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>72900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>68900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>65700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>62500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>59300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>56200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +4541,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>177200</v>
+      </c>
+      <c r="E76" s="3">
         <v>167000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>159300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>149400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>142100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>136100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>133300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>127800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>123100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>118600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>114600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>106700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>87000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>83400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E81" s="3">
         <v>9000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1900</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,19 +4830,19 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>-600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -4658,31 +4857,34 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E89" s="3">
         <v>54600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>41300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-21500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,29 +5278,30 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5090,35 +5311,38 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-400</v>
       </c>
       <c r="Q91" s="3">
         <v>-400</v>
       </c>
       <c r="R91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-85300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-92600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-86000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-249500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-57300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-81700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-33800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E100" s="3">
         <v>209100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>48700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>304400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>73000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>109700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>72100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>105200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>27000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>33300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>22700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>16600</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E102" s="3">
         <v>171100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-58600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>60000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>59700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>41200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-28000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10900</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,166 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E8" s="3">
         <v>29300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12800</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E18" s="3">
         <v>26800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>27300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>11700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1414,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-11800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-9600</v>
       </c>
       <c r="O20" s="3">
         <v>-9600</v>
       </c>
       <c r="P20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-10400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7500</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E21" s="3">
         <v>13500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>3300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,132 +1607,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E23" s="3">
         <v>13000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1600</v>
       </c>
       <c r="K24" s="3">
         <v>1600</v>
       </c>
       <c r="L24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E26" s="3">
         <v>9600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1900</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E27" s="3">
         <v>9600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1900</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1968,17 +2029,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
@@ -1986,12 +2047,12 @@
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1400</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E32" s="3">
         <v>13700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>11800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>9600</v>
       </c>
       <c r="O32" s="3">
         <v>9600</v>
       </c>
       <c r="P32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="Q32" s="3">
         <v>18700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>10400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7500</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E33" s="3">
         <v>9600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1900</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E35" s="3">
         <v>9600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1900</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2574,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E41" s="3">
         <v>19700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,56 +2637,59 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>300600</v>
+      </c>
+      <c r="E42" s="3">
         <v>289200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>295600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>128500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>185400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>184100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>165300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>104300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>44000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>67300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>26700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>24300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>58900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>35500</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,46 +3027,49 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2800</v>
       </c>
       <c r="P48" s="3">
         <v>2800</v>
@@ -2969,8 +3077,8 @@
       <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>2800</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,43 +3287,46 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="E52" s="3">
         <v>7400</v>
       </c>
       <c r="F52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G52" s="3">
         <v>6800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3600</v>
       </c>
       <c r="H52" s="3">
         <v>3600</v>
       </c>
       <c r="I52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J52" s="3">
         <v>4000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>3700</v>
       </c>
       <c r="O52" s="3">
         <v>3700</v>
@@ -3215,11 +3335,11 @@
         <v>3700</v>
       </c>
       <c r="Q52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R52" s="3">
         <v>3600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3417,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2169600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2151900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2091900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1876600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1879000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1822400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1507800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1427600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1311400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1234200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1123800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1105100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1072900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1067800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1017600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,56 +3534,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2000</v>
       </c>
       <c r="M57" s="3">
         <v>2000</v>
       </c>
       <c r="N57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,44 +3662,47 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3575,8 +3712,8 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3590,8 +3727,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3664,16 +3807,16 @@
         <v>12100</v>
       </c>
       <c r="F61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G61" s="3">
         <v>14000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17400</v>
-      </c>
-      <c r="I61" s="3">
-        <v>15400</v>
       </c>
       <c r="J61" s="3">
         <v>15400</v>
@@ -3694,14 +3837,14 @@
         <v>15400</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>15400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4117,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1980500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1974600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1924800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1717300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1729700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1680300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1371800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1294300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1183600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1111000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1005200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>990500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>966200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>980800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>934200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4467,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E72" s="3">
         <v>125400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>115800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>106900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>97600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>89200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>84400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>81600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>77100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>72900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>68900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>65700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>62500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>59300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>56200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4727,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>189100</v>
+      </c>
+      <c r="E76" s="3">
         <v>177200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>167000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>159300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>149400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>142100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>136100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>133300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>127800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>123100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>118600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>114600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>106700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>87000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>83400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E81" s="3">
         <v>9600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1900</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,31 +5019,32 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>-600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -4860,31 +5059,34 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E89" s="3">
         <v>21500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>54600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>41300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-30100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-21500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,32 +5499,33 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>400</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5314,35 +5535,38 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-400</v>
       </c>
       <c r="R91" s="3">
         <v>-400</v>
       </c>
       <c r="S91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-85300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-92600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-86000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-249500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-57300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-81700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E100" s="3">
         <v>54400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>209100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>48700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>304400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>73000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>109700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>72100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>105200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>27000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>33300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>22700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>16600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>171100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-58600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>60000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>59700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>41200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-28000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10900</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,179 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F8" s="3">
         <v>33500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>29300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>26600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>28300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>25200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>22000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>21700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>21200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>22400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>20300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>18300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>18200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>17400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>33400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>16700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>14700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>15000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>14200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>12800</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +901,14 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2700</v>
       </c>
       <c r="G17" s="3">
         <v>2600</v>
       </c>
       <c r="H17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>31600</v>
+      </c>
+      <c r="F18" s="3">
         <v>31100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>26800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>23900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>25700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>22100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>18600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>17600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>15900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>17200</v>
       </c>
       <c r="M18" s="3">
         <v>15900</v>
       </c>
       <c r="N18" s="3">
+        <v>17200</v>
+      </c>
+      <c r="O18" s="3">
+        <v>15900</v>
+      </c>
+      <c r="P18" s="3">
         <v>14600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>14400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>14000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>27300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>13900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>11800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>12300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>11700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>10500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,138 +1480,152 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-16000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-13700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-11800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-12700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-10500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-12100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-13600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-9300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-11100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-10300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-10200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-9600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-18700</v>
       </c>
       <c r="R20" s="3">
         <v>-9600</v>
       </c>
       <c r="S20" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="U20" s="3">
         <v>-10400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-7300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-7000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-7500</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F21" s="3">
         <v>15100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>13500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>12600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>12500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>12100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>6900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>4500</v>
       </c>
       <c r="K21" s="3">
         <v>6900</v>
       </c>
       <c r="L21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N21" s="3">
         <v>6400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>5900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>5100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>4600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>9200</v>
       </c>
       <c r="R21" s="3">
         <v>4600</v>
       </c>
       <c r="S21" s="3">
+        <v>9200</v>
+      </c>
+      <c r="T21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="U21" s="3">
         <v>1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>5200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>3300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,138 +1689,156 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F23" s="3">
         <v>15100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>13000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>12100</v>
       </c>
       <c r="G23" s="3">
         <v>13000</v>
       </c>
       <c r="H23" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J23" s="3">
         <v>11600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>4300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>8700</v>
       </c>
       <c r="R23" s="3">
         <v>4300</v>
       </c>
       <c r="S23" s="3">
+        <v>8700</v>
+      </c>
+      <c r="T23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>5000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>4700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3000</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3300</v>
       </c>
       <c r="H24" s="3">
         <v>3100</v>
       </c>
       <c r="I24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1200</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F26" s="3">
         <v>11200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>9600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>9000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>9700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>6100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>700</v>
       </c>
       <c r="T26" s="3">
         <v>3000</v>
       </c>
       <c r="U26" s="3">
+        <v>700</v>
+      </c>
+      <c r="V26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W26" s="3">
         <v>2900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1900</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F27" s="3">
         <v>11200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>9600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>9000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>6100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S27" s="3">
-        <v>700</v>
       </c>
       <c r="T27" s="3">
         <v>3000</v>
       </c>
       <c r="U27" s="3">
+        <v>700</v>
+      </c>
+      <c r="V27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W27" s="3">
         <v>2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1900</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2032,41 +2153,47 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1400</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F32" s="3">
         <v>16000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>13700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>11800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>12700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>10500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>12100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>13600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>9300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>11100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>10300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>10200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>9600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>9600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>18700</v>
       </c>
       <c r="R32" s="3">
         <v>9600</v>
       </c>
       <c r="S32" s="3">
+        <v>18700</v>
+      </c>
+      <c r="T32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="U32" s="3">
         <v>10400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>7300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>7000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>7500</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F33" s="3">
         <v>11200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>9600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>9000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>6100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-600</v>
       </c>
       <c r="T33" s="3">
         <v>3000</v>
       </c>
       <c r="U33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W33" s="3">
         <v>2900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1900</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F35" s="3">
         <v>11200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>9600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>9000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>6100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-600</v>
       </c>
       <c r="T35" s="3">
         <v>3000</v>
       </c>
       <c r="U35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W35" s="3">
         <v>2900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1900</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,62 +2746,64 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>42900</v>
+      </c>
+      <c r="F41" s="3">
         <v>23700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>22700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>18500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>20100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>12300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>10400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>11000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>9800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>9600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,62 +2813,68 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>299100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>140700</v>
+      </c>
+      <c r="F42" s="3">
         <v>300600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>289200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>295600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>128500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>185400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>184100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>165300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>104300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>44000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>67300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>26700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>24300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>29700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>58900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>35500</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2884,14 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +3026,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2900,8 +3097,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2965,8 +3168,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,61 +3239,67 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F48" s="3">
         <v>3700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2800</v>
       </c>
       <c r="R48" s="3">
         <v>2800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T48" s="3">
+        <v>2800</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
@@ -3095,8 +3310,14 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,62 +3523,68 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F52" s="3">
         <v>7200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>3500</v>
       </c>
       <c r="N52" s="3">
         <v>3600</v>
       </c>
       <c r="O52" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="P52" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="Q52" s="3">
         <v>3700</v>
       </c>
       <c r="R52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T52" s="3">
         <v>3600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3594,14 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,62 +3665,68 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2122500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2055300</v>
+      </c>
+      <c r="F54" s="3">
         <v>2169600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2151900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2091900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1876600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1879000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1822400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1507800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1427600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1311400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1234200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1123800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1105100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1072900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1067800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1017600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3485,8 +3736,14 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,62 +3794,64 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3861,14 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,61 +3932,67 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F59" s="3">
         <v>3000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3100</v>
       </c>
       <c r="G59" s="3">
         <v>3400</v>
       </c>
       <c r="H59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J59" s="3">
         <v>3800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3730,8 +4003,14 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3795,8 +4074,14 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3810,19 +4095,19 @@
         <v>12100</v>
       </c>
       <c r="G61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="H61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I61" s="3">
         <v>14000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>17500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>17400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>15400</v>
-      </c>
-      <c r="K61" s="3">
-        <v>15400</v>
       </c>
       <c r="L61" s="3">
         <v>15400</v>
@@ -3840,7 +4125,7 @@
         <v>15400</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="R61" s="3">
         <v>15400</v>
@@ -3849,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -3860,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,62 +4429,68 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1921000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1857400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1980500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1974600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1924800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1717300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1729700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1680300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1371800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1294300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1183600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1111000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1005200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>990500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>966200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>980800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>934200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4185,8 +4500,14 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,62 +4811,68 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>144500</v>
+      </c>
+      <c r="F72" s="3">
         <v>135900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>125400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>115800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>106900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>97600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>89200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>84400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>81600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>77100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>72900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>68900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>65700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>62500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>59300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>56200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4535,8 +4882,14 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,62 +5095,68 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>201500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>197900</v>
+      </c>
+      <c r="F76" s="3">
         <v>189100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>177200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>167000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>159300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>149400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>142100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>136100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>133300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>127800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>123100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>118600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>114600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>106700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>87000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>83400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +5166,14 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F81" s="3">
         <v>11200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>9600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>9000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>6100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-600</v>
       </c>
       <c r="T81" s="3">
         <v>3000</v>
       </c>
       <c r="U81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W81" s="3">
         <v>2900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1900</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,37 +5415,39 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>-600</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>-600</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -5062,31 +5459,37 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F89" s="3">
         <v>26400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>21500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>54600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>41300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-8900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-30100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-14800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-21500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>10400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>15100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>12900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>6800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>4700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5939,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>200</v>
+      </c>
+      <c r="F91" s="3">
         <v>400</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-300</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>-700</v>
       </c>
       <c r="R91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-14500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-85300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-92600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-86000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-34000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-249500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-16000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-57300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-81700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-42500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-43400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-33800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-32000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-12000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-16700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-32300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,13 +6250,15 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5850,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6530,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-124300</v>
+      </c>
+      <c r="F100" s="3">
         <v>3400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>54400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>209100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-14000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>48700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>304400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>73000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>109700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>72100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>105200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>8300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>27000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>33300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-10600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>22700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>16600</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="F102" s="3">
         <v>15300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-9400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>171100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-58600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>24800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>60000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>59700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-24500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>41200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>16400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-9700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>12700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-10900</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,186 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E8" s="3">
         <v>34400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>28300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>14200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12800</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2300</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E18" s="3">
         <v>32400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>31600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>31100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>25700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>27300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>12300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>11700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10500</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,141 +1525,147 @@
         <v>-18800</v>
       </c>
       <c r="E20" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-17900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-16000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-13700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-9600</v>
       </c>
       <c r="R20" s="3">
         <v>-9600</v>
       </c>
       <c r="S20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="T20" s="3">
         <v>-18700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-10400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="3">
         <v>14000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3">
         <v>3300</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,150 +1735,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E23" s="3">
         <v>13600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3000</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1600</v>
       </c>
       <c r="N24" s="3">
         <v>1600</v>
       </c>
       <c r="O24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1200</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10200</v>
+        <v>11500</v>
       </c>
       <c r="E26" s="3">
         <v>10200</v>
       </c>
       <c r="F26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G26" s="3">
         <v>11200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1900</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10200</v>
+        <v>11500</v>
       </c>
       <c r="E27" s="3">
         <v>10200</v>
       </c>
       <c r="F27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G27" s="3">
         <v>11200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1900</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2159,17 +2220,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
@@ -2177,12 +2238,12 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1400</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,141 +2413,147 @@
         <v>18800</v>
       </c>
       <c r="E32" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F32" s="3">
         <v>17900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>16000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>13700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>9600</v>
       </c>
       <c r="R32" s="3">
         <v>9600</v>
       </c>
       <c r="S32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="T32" s="3">
         <v>18700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>10400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7500</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10200</v>
+        <v>11500</v>
       </c>
       <c r="E33" s="3">
         <v>10200</v>
       </c>
       <c r="F33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G33" s="3">
         <v>11200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1900</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10200</v>
+        <v>11500</v>
       </c>
       <c r="E35" s="3">
         <v>10200</v>
       </c>
       <c r="F35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G35" s="3">
         <v>11200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1900</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,65 +2834,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E41" s="3">
         <v>15000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9600</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,65 +2906,68 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>236400</v>
+      </c>
+      <c r="E42" s="3">
         <v>299100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>140700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>300600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>289200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>295600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>128500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>185400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>184100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>165300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>104300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>44000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>67300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>26700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>24300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>29700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>58900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>35500</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3202,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,55 +3350,58 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2800</v>
       </c>
       <c r="S48" s="3">
         <v>2800</v>
@@ -3301,8 +3409,8 @@
       <c r="T48" s="3">
         <v>2800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
+      <c r="U48" s="3">
+        <v>2800</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,52 +3646,55 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E52" s="3">
         <v>12400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>7400</v>
       </c>
       <c r="H52" s="3">
         <v>7400</v>
       </c>
       <c r="I52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J52" s="3">
         <v>6800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3600</v>
       </c>
       <c r="K52" s="3">
         <v>3600</v>
       </c>
       <c r="L52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M52" s="3">
         <v>4000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>3700</v>
       </c>
       <c r="R52" s="3">
         <v>3700</v>
@@ -3583,11 +3703,11 @@
         <v>3700</v>
       </c>
       <c r="T52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U52" s="3">
         <v>3600</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,65 +3794,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2154800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2122500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2055300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2169600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2151900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2091900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1876600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1879000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1822400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1507800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1427600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1311400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1234200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1123800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1105100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1072900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1067800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1017600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,65 +3926,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2000</v>
       </c>
       <c r="P57" s="3">
         <v>2000</v>
       </c>
       <c r="Q57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,53 +4072,56 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3994,8 +4131,8 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4009,8 +4146,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4101,16 +4244,16 @@
         <v>12100</v>
       </c>
       <c r="I61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J61" s="3">
         <v>14000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17400</v>
-      </c>
-      <c r="L61" s="3">
-        <v>15400</v>
       </c>
       <c r="M61" s="3">
         <v>15400</v>
@@ -4131,14 +4274,14 @@
         <v>15400</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>15400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,65 +4590,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1947500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1921000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1857400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1980500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1974600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1924800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1717300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1729700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1680300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1371800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1294300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1183600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1111000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1005200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>990500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>966200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>980800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>934200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,65 +4988,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E72" s="3">
         <v>153900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>144500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>135900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>125400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>115800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>106900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>97600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>89200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>84400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>81600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>77100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>72900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>68900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>65700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>62500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>59300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>56200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,65 +5284,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>207300</v>
+      </c>
+      <c r="E76" s="3">
         <v>201500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>197900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>189100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>177200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>167000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>159300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>149400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>142100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>136100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>133300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>127800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>123100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>118600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>114600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>106700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>87000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>83400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10200</v>
+        <v>11500</v>
       </c>
       <c r="E81" s="3">
         <v>10200</v>
       </c>
       <c r="F81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G81" s="3">
         <v>11200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1900</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,31 +5625,31 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>-500</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>-600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -5465,31 +5664,34 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E89" s="3">
         <v>9200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>54600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>41300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-30100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-21500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4700</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,41 +6161,42 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5985,35 +6206,38 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-400</v>
       </c>
       <c r="U91" s="3">
         <v>-400</v>
       </c>
       <c r="V91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-108800</v>
+      </c>
+      <c r="E94" s="3">
         <v>56100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-45900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-85300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-92600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-86000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-249500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-81700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-43400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-33800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32300</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6261,7 +6495,7 @@
         <v>-700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E100" s="3">
         <v>65100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-124300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>54400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>209100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>48700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>304400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>73000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>109700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>72100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>105200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>27000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>33300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>22700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>16600</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E102" s="3">
         <v>130400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-140600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>171100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-58600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>60000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>59700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>41200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-28000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10900</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,193 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E8" s="3">
         <v>36600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>29300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>28300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>33400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>14200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12800</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +924,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2300</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E18" s="3">
         <v>33400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>32400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>31600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>31100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>25700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>27300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>12300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>11700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10500</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,156 +1549,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-18800</v>
+        <v>-20900</v>
       </c>
       <c r="E20" s="3">
         <v>-18800</v>
       </c>
       <c r="F20" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-17900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-16000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-13700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-10200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-9600</v>
       </c>
       <c r="S20" s="3">
         <v>-9600</v>
       </c>
       <c r="T20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="U20" s="3">
         <v>-18700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-9600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-10400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E21" s="3">
         <v>15000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5200</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3">
         <v>3300</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,156 +1778,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E23" s="3">
         <v>14600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3000</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1600</v>
       </c>
       <c r="O24" s="3">
         <v>1600</v>
       </c>
       <c r="P24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1200</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E26" s="3">
         <v>11500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>10200</v>
       </c>
       <c r="F26" s="3">
         <v>10200</v>
       </c>
       <c r="G26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H26" s="3">
         <v>11200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1900</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E27" s="3">
         <v>11500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>10200</v>
       </c>
       <c r="F27" s="3">
         <v>10200</v>
       </c>
       <c r="G27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H27" s="3">
         <v>11200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1900</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2223,17 +2284,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
@@ -2241,12 +2302,12 @@
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1400</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>18800</v>
+        <v>20900</v>
       </c>
       <c r="E32" s="3">
         <v>18800</v>
       </c>
       <c r="F32" s="3">
+        <v>18800</v>
+      </c>
+      <c r="G32" s="3">
         <v>17900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>16000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>13700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>10200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>9600</v>
       </c>
       <c r="S32" s="3">
         <v>9600</v>
       </c>
       <c r="T32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="U32" s="3">
         <v>18700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>9600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>10400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7500</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E33" s="3">
         <v>11500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>10200</v>
       </c>
       <c r="F33" s="3">
         <v>10200</v>
       </c>
       <c r="G33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H33" s="3">
         <v>11200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1900</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E35" s="3">
         <v>11500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>10200</v>
       </c>
       <c r="F35" s="3">
         <v>10200</v>
       </c>
       <c r="G35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H35" s="3">
         <v>11200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1900</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2921,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2844,59 +2931,59 @@
         <v>14800</v>
       </c>
       <c r="E41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F41" s="3">
         <v>15000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>42900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9600</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2909,68 +2996,71 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E42" s="3">
         <v>236400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>299100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>140700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>300600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>289200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>295600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>128500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>185400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>184100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>165300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>104300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>44000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>67300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>26700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>24300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>29700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>58900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>35500</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3205,8 +3304,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,8 +3381,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,58 +3458,61 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2800</v>
       </c>
       <c r="T48" s="3">
         <v>2800</v>
@@ -3412,8 +3520,8 @@
       <c r="U48" s="3">
         <v>2800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
+      <c r="V48" s="3">
+        <v>2800</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,55 +3766,58 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E52" s="3">
         <v>12900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>7400</v>
       </c>
       <c r="I52" s="3">
         <v>7400</v>
       </c>
       <c r="J52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K52" s="3">
         <v>6800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3600</v>
       </c>
       <c r="L52" s="3">
         <v>3600</v>
       </c>
       <c r="M52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N52" s="3">
         <v>4000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3600</v>
-      </c>
-      <c r="R52" s="3">
-        <v>3700</v>
       </c>
       <c r="S52" s="3">
         <v>3700</v>
@@ -3706,11 +3826,11 @@
         <v>3700</v>
       </c>
       <c r="U52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V52" s="3">
         <v>3600</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,68 +3920,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2009400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2154800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2122500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2055300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2169600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2151900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2091900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1876600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1879000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1822400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1507800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1427600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1311400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1234200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1123800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1105100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1072900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1067800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1017600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,68 +4057,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2000</v>
       </c>
       <c r="Q57" s="3">
         <v>2000</v>
       </c>
       <c r="R57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4132,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,56 +4209,59 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4134,8 +4271,8 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4149,8 +4286,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4223,8 +4363,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4247,16 +4390,16 @@
         <v>12100</v>
       </c>
       <c r="J61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K61" s="3">
         <v>14000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17400</v>
-      </c>
-      <c r="M61" s="3">
-        <v>15400</v>
       </c>
       <c r="N61" s="3">
         <v>15400</v>
@@ -4277,14 +4420,14 @@
         <v>15400</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>15400</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4297,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,68 +4748,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1795400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1947500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1921000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1857400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1980500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1974600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1924800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1717300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1729700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1680300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1371800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1294300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1183600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1111000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1005200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>990500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>966200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>980800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>934200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4825,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,68 +5162,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>174900</v>
+      </c>
+      <c r="E72" s="3">
         <v>164800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>153900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>144500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>135900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>125400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>115800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>106900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>97600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>89200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>84400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>81600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>77100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>72900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>68900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>65700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>62500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>59300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>56200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,68 +5470,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E76" s="3">
         <v>207300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>201500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>197900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>189100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>177200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>167000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>159300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>149400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>142100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>136100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>133300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>127800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>123100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>118600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>114600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>106700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>87000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>83400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E81" s="3">
         <v>11500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>10200</v>
       </c>
       <c r="F81" s="3">
         <v>10200</v>
       </c>
       <c r="G81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H81" s="3">
         <v>11200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1900</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,43 +5814,44 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>-500</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>-600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -5667,31 +5866,34 @@
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>300</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E89" s="3">
         <v>20300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>54600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>41300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-30100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>15100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4700</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,44 +6382,45 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6209,35 +6430,38 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-400</v>
       </c>
       <c r="V91" s="3">
         <v>-400</v>
       </c>
       <c r="W91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-108800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>56100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-45900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-85300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-92600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-86000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-249500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-57300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-81700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-43400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-33800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32300</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,19 +6719,20 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E96" s="3">
         <v>-700</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-151900</v>
+      </c>
+      <c r="E100" s="3">
         <v>25600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>65100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-124300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>54400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>209100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>304400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>73000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>109700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>72100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>105200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>27000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>33300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>22700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>16600</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-213800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-62900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>130400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-140600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>171100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-58600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>60000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>59700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>41200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-28000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10900</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>41300</v>
+      </c>
+      <c r="F8" s="3">
         <v>38300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>36600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>34400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>33800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>33500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>29300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>26600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>28300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>25200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>22000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>21700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>21200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>22400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>20300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>18300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>18200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>17400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>33400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>16700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>14700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>15000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>14200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>12800</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -927,8 +940,14 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1023,14 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1220,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2700</v>
       </c>
       <c r="K17" s="3">
         <v>2600</v>
       </c>
       <c r="L17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>6100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2300</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F18" s="3">
         <v>35400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>33400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>32400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>31600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>31100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>26800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>23900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>25700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>22100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>18600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>17600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>15900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>17200</v>
       </c>
       <c r="Q18" s="3">
         <v>15900</v>
       </c>
       <c r="R18" s="3">
+        <v>17200</v>
+      </c>
+      <c r="S18" s="3">
+        <v>15900</v>
+      </c>
+      <c r="T18" s="3">
         <v>14600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>14400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>14000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>27300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>13900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>11800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>12300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>11700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>10500</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,162 +1615,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-20900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-18800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-18800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-17900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-16000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-13700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-11800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-12700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-10500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-12100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-13600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-9300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-10300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-10200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-9600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-18700</v>
       </c>
       <c r="V20" s="3">
         <v>-9600</v>
       </c>
       <c r="W20" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-10400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F21" s="3">
         <v>14800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>15000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>14000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>13200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>15100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>13500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>12600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>12500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>12100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>6900</v>
-      </c>
-      <c r="N21" s="3">
-        <v>4500</v>
       </c>
       <c r="O21" s="3">
         <v>6900</v>
       </c>
       <c r="P21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="R21" s="3">
         <v>6400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>5900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>5100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>4600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>9200</v>
       </c>
       <c r="V21" s="3">
         <v>4600</v>
       </c>
       <c r="W21" s="3">
+        <v>9200</v>
+      </c>
+      <c r="X21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>5200</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="3">
         <v>3300</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,162 +1860,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F23" s="3">
         <v>14400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>14600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>13600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>13700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>15100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>12100</v>
       </c>
       <c r="K23" s="3">
         <v>13000</v>
       </c>
       <c r="L23" s="3">
+        <v>12100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="N23" s="3">
         <v>11600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>6700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>6100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>4400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4800</v>
-      </c>
-      <c r="T23" s="3">
-        <v>4300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>8700</v>
       </c>
       <c r="V23" s="3">
         <v>4300</v>
       </c>
       <c r="W23" s="3">
+        <v>8700</v>
+      </c>
+      <c r="X23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>5000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>4700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>3000</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>3400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3300</v>
       </c>
       <c r="L24" s="3">
         <v>3100</v>
       </c>
       <c r="M24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>2500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>1800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>1200</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F26" s="3">
         <v>11100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>11500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>11200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>5100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>3500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>6100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="W26" s="3">
-        <v>700</v>
       </c>
       <c r="X26" s="3">
         <v>3000</v>
       </c>
       <c r="Y26" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA26" s="3">
         <v>2900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1900</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F27" s="3">
         <v>11100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>11500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>11200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>5100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>3500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>6100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>3000</v>
-      </c>
-      <c r="W27" s="3">
-        <v>700</v>
       </c>
       <c r="X27" s="3">
         <v>3000</v>
       </c>
       <c r="Y27" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA27" s="3">
         <v>2900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1900</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2287,41 +2408,47 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>3</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-1400</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2607,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F32" s="3">
         <v>20900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>18800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>18800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>17900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>16000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>13700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>11800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>12700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>10500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>12100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>13600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>9300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>11100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>10300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>10200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>9600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>9600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>18700</v>
       </c>
       <c r="V32" s="3">
         <v>9600</v>
       </c>
       <c r="W32" s="3">
+        <v>18700</v>
+      </c>
+      <c r="X32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="Y32" s="3">
         <v>10400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>7300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>7000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>7500</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F33" s="3">
         <v>11100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>11500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>11200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>9600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>5100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>3500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>6100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-600</v>
       </c>
       <c r="X33" s="3">
         <v>3000</v>
       </c>
       <c r="Y33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA33" s="3">
         <v>2900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1900</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F35" s="3">
         <v>11100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>11500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>11200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>9600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>5100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>3500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>6100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>3000</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-600</v>
       </c>
       <c r="X35" s="3">
         <v>3000</v>
       </c>
       <c r="Y35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA35" s="3">
         <v>2900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1900</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,74 +3093,76 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F41" s="3">
         <v>14800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>14800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>15000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>42900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>23700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>19700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>22700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>18500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>20100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>15600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>10500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>11100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>12300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>11600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>10400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>11000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>9800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>9600</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,74 +3172,80 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>60500</v>
+      </c>
+      <c r="F42" s="3">
         <v>22500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>236400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>299100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>140700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>300600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>289200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>295600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>128500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>185400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>184100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>165300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>104300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>44000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>67300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>26700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>24300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>29700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>58900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>35500</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3076,8 +3255,14 @@
       <c r="AA42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3153,8 +3338,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,8 +3421,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3307,8 +3504,14 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3384,8 +3587,14 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,73 +3670,79 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F48" s="3">
         <v>3200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3000</v>
       </c>
       <c r="G48" s="3">
         <v>3300</v>
       </c>
       <c r="H48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J48" s="3">
         <v>3700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>7200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>7700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="U48" s="3">
-        <v>2800</v>
       </c>
       <c r="V48" s="3">
         <v>2800</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
+      <c r="W48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X48" s="3">
+        <v>2800</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
@@ -3538,8 +3753,14 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,74 +4002,80 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F52" s="3">
         <v>14000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>12900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>12400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>3500</v>
       </c>
       <c r="R52" s="3">
         <v>3600</v>
       </c>
       <c r="S52" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="T52" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="U52" s="3">
         <v>3700</v>
       </c>
       <c r="V52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="W52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X52" s="3">
         <v>3600</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3846,8 +4085,14 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,74 +4168,80 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2245300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2123700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2009400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2154800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2122500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2055300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2169600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2151900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2091900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1876600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1879000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1822400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1507800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1427600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1311400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1234200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1123800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1105100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1072900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1067800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1017600</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,8 +4251,14 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,74 +4317,76 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4135,8 +4396,14 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4212,73 +4479,79 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>3100</v>
       </c>
       <c r="K59" s="3">
         <v>3400</v>
       </c>
       <c r="L59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N59" s="3">
         <v>3800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4289,8 +4562,14 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4366,8 +4645,14 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4393,19 +4678,19 @@
         <v>12100</v>
       </c>
       <c r="K61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="L61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="M61" s="3">
         <v>14000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>17500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>17400</v>
-      </c>
-      <c r="N61" s="3">
-        <v>15400</v>
-      </c>
-      <c r="O61" s="3">
-        <v>15400</v>
       </c>
       <c r="P61" s="3">
         <v>15400</v>
@@ -4423,7 +4708,7 @@
         <v>15400</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="V61" s="3">
         <v>15400</v>
@@ -4432,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
@@ -4443,8 +4728,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4520,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,74 +5060,80 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2010800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1899600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1795400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1947500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1921000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1857400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1980500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1974600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1924800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1717300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1729700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1680300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1371800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1294300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1183600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1111000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1005200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>990500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>966200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>980800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>934200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4828,8 +5143,14 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,74 +5506,80 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>182400</v>
+      </c>
+      <c r="F72" s="3">
         <v>174900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>164800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>153900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>144500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>135900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>125400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>115800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>106900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>97600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>89200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>84400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>81600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>77100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>72900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>68900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>65700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>62500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>59300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>56200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5242,8 +5589,14 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,74 +5838,80 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>234500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F76" s="3">
         <v>214000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>207300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>201500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>197900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>189100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>177200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>167000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>159300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>149400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>142100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>136100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>133300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>127800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>123100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>118600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>114600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>106700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>87000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>83400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5550,8 +5921,14 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F81" s="3">
         <v>11100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>11500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>11200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>9600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>5100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>3500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>6100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>3000</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-600</v>
       </c>
       <c r="X81" s="3">
         <v>3000</v>
       </c>
       <c r="Y81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA81" s="3">
         <v>2900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1900</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,49 +6210,51 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>-500</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>-600</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
       </c>
       <c r="M83" s="3">
-        <v>400</v>
+        <v>-600</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P83" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -5869,31 +6266,37 @@
         <v>300</v>
       </c>
       <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>300</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F89" s="3">
         <v>15800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>20300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>9200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>29500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>26400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>21500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>54600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>41300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-8900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-30100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>8200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-21500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>10400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>15100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>12900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>6800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>4700</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6822,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>400</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-300</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>-700</v>
       </c>
       <c r="V91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +7067,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-77700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-108800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>56100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-45900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-14500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-85300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-92600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-86000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-34000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-249500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-16000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-57300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-81700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-42500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-6400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-43400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-33800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-32000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-12000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-16700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-32300</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,26 +7185,28 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-700</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6797,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7513,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>105300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-151900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>25600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>65100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-124300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>54400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>209100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-14000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>48700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>304400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>73000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>109700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>72100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>105200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>8300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>27000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>3000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>33300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-10600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>22700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>16600</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>43400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-213800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-62900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>130400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-140600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>15300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>171100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-58600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>24800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>60000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>59700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>41200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-6000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-28000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>16400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-9700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>12700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-10900</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,213 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E8" s="3">
         <v>43400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>41300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>36600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>17400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>33400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>14700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>15000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>14200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>12800</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E17" s="3">
         <v>10600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2300</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>32800</v>
+        <v>32500</v>
       </c>
       <c r="E18" s="3">
         <v>32800</v>
       </c>
       <c r="F18" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G18" s="3">
         <v>35400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>33400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>32400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>31600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>31100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>15900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>27300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>11800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>12300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>11700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>10500</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,174 +1650,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-20200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-21100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-20900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-18800</v>
       </c>
       <c r="H20" s="3">
         <v>-18800</v>
       </c>
       <c r="I20" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-17900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-16000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-10300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-10200</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-9600</v>
       </c>
       <c r="V20" s="3">
         <v>-9600</v>
       </c>
       <c r="W20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="X20" s="3">
         <v>-18700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-7500</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E21" s="3">
         <v>12700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5200</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="3">
         <v>3300</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,174 +1906,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E23" s="3">
         <v>12700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3000</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1600</v>
       </c>
       <c r="R24" s="3">
         <v>1600</v>
       </c>
       <c r="S24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1200</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E26" s="3">
         <v>9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>10200</v>
       </c>
       <c r="I26" s="3">
         <v>10200</v>
       </c>
       <c r="J26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K26" s="3">
         <v>11200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1900</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E27" s="3">
         <v>9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>10200</v>
       </c>
       <c r="I27" s="3">
         <v>10200</v>
       </c>
       <c r="J27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K27" s="3">
         <v>11200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1900</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2414,17 +2475,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>3</v>
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>3</v>
@@ -2432,12 +2493,12 @@
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E32" s="3">
         <v>20200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>21100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>20900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>18800</v>
       </c>
       <c r="H32" s="3">
         <v>18800</v>
       </c>
       <c r="I32" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J32" s="3">
         <v>17900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>16000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>10300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>10200</v>
-      </c>
-      <c r="U32" s="3">
-        <v>9600</v>
       </c>
       <c r="V32" s="3">
         <v>9600</v>
       </c>
       <c r="W32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="X32" s="3">
         <v>18700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>9600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>10400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>7300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>7000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>7500</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E33" s="3">
         <v>9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>10200</v>
       </c>
       <c r="I33" s="3">
         <v>10200</v>
       </c>
       <c r="J33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K33" s="3">
         <v>11200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1900</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E35" s="3">
         <v>9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>10200</v>
       </c>
       <c r="I35" s="3">
         <v>10200</v>
       </c>
       <c r="J35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K35" s="3">
         <v>11200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1900</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,77 +3181,78 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E41" s="3">
         <v>14500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>14800</v>
       </c>
       <c r="G41" s="3">
         <v>14800</v>
       </c>
       <c r="H41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I41" s="3">
         <v>15000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>42900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9600</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,77 +3265,80 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E42" s="3">
         <v>125900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>60500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>22500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>236400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>299100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>140700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>300600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>289200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>295600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>128500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>185400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>184100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>165300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>104300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>44000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>67300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>26700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>24300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>29700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>58900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>35500</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3261,8 +3351,11 @@
       <c r="AC42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3523,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3609,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,67 +3781,70 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2800</v>
       </c>
       <c r="W48" s="3">
         <v>2800</v>
@@ -3744,8 +3852,8 @@
       <c r="X48" s="3">
         <v>2800</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
+      <c r="Y48" s="3">
+        <v>2800</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,64 +4125,67 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E52" s="3">
         <v>12900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>7400</v>
       </c>
       <c r="L52" s="3">
         <v>7400</v>
       </c>
       <c r="M52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="N52" s="3">
         <v>6800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>3600</v>
       </c>
       <c r="O52" s="3">
         <v>3600</v>
       </c>
       <c r="P52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>4000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3600</v>
-      </c>
-      <c r="U52" s="3">
-        <v>3700</v>
       </c>
       <c r="V52" s="3">
         <v>3700</v>
@@ -4074,11 +4194,11 @@
         <v>3700</v>
       </c>
       <c r="X52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y52" s="3">
         <v>3600</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,77 +4297,80 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2227900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2245300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2123700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2009400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2154800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2122500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2055300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2169600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2151900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2091900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1876600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1879000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1822400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1507800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1427600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1311400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1234200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1123800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1105100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1072900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1067800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1017600</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,77 +4449,78 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2000</v>
       </c>
       <c r="T57" s="3">
         <v>2000</v>
       </c>
       <c r="U57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1400</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4402,8 +4533,11 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,65 +4619,68 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4553,8 +4690,8 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4568,8 +4705,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4791,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4684,16 +4827,16 @@
         <v>12100</v>
       </c>
       <c r="M61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="N61" s="3">
         <v>14000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17400</v>
-      </c>
-      <c r="P61" s="3">
-        <v>15400</v>
       </c>
       <c r="Q61" s="3">
         <v>15400</v>
@@ -4714,14 +4857,14 @@
         <v>15400</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>15400</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,77 +5221,80 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1990400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2010800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1899600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1795400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1947500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1921000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1857400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1980500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1974600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1924800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1717300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1729700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1680300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1371800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1294300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1183600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1111000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1005200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>990500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>966200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>980800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>934200</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,77 +5683,80 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>197500</v>
+      </c>
+      <c r="E72" s="3">
         <v>191100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>182400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>174900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>164800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>153900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>144500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>135900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>125400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>115800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>106900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>97600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>89200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>84400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>81600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>77100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>72900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>68900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>65700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>62500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>59300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>56200</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,77 +6027,80 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>237400</v>
+      </c>
+      <c r="E76" s="3">
         <v>234500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>224000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>214000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>207300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>201500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>197900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>189100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>177200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>167000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>159300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>149400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>142100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>136100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>133300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>127800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>123100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>118600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>114600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>106700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>87000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>83400</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E81" s="3">
         <v>9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>10200</v>
       </c>
       <c r="I81" s="3">
         <v>10200</v>
       </c>
       <c r="J81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K81" s="3">
         <v>11200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1900</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6221,43 +6420,43 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>-700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>-500</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
         <v>-600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -6272,31 +6471,34 @@
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>300</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E89" s="3">
         <v>10400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>29500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>54600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-30100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-14800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-21500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>15100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>12900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4700</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,53 +7044,54 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6880,35 +7101,38 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-700</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-400</v>
       </c>
       <c r="Y91" s="3">
         <v>-400</v>
       </c>
       <c r="Z91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-300</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-58700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-68000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-77700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-108800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>56100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-45900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-85300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-92600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-86000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-249500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-57300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-81700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-42500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-43400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-33800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-32300</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,28 +7420,29 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-900</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-800</v>
       </c>
       <c r="F96" s="3">
         <v>-800</v>
       </c>
       <c r="G96" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H96" s="3">
         <v>-700</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7762,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E100" s="3">
         <v>108300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>105300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-151900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>25600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>65100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-124300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>54400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>209100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>48700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>304400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>73000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>109700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>72100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>105200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>27000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>33300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>22700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>16600</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E102" s="3">
         <v>60000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>43400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-213800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-62900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>130400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-140600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>171100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-58600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>24800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>60000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>59700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>41200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-28000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>16400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>12700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-10900</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>CBNK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,213 +665,220 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E8" s="3">
         <v>45100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>36600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>17400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>33400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>16700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>14700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>15000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>14200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>12800</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -956,8 +963,11 @@
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1052,11 @@
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E17" s="3">
         <v>12600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2300</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E18" s="3">
         <v>32500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>32800</v>
       </c>
       <c r="F18" s="3">
         <v>32800</v>
       </c>
       <c r="G18" s="3">
+        <v>32800</v>
+      </c>
+      <c r="H18" s="3">
         <v>35400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>33400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>31600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>31100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>25700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>15900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>27300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>11800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>12300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>11700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>10500</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,180 +1684,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-22900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-20200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-21100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-18800</v>
       </c>
       <c r="I20" s="3">
         <v>-18800</v>
       </c>
       <c r="J20" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-17900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-10300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-10200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-9600</v>
       </c>
       <c r="W20" s="3">
         <v>-9600</v>
       </c>
       <c r="X20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-18700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-7300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-7000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-7500</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E21" s="3">
         <v>9600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5200</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="3">
         <v>3300</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,180 +1949,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E23" s="3">
         <v>9600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3000</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1600</v>
       </c>
       <c r="S24" s="3">
         <v>1600</v>
       </c>
       <c r="T24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1200</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E26" s="3">
         <v>7300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>10200</v>
       </c>
       <c r="J26" s="3">
         <v>10200</v>
       </c>
       <c r="K26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="L26" s="3">
         <v>11200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1900</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E27" s="3">
         <v>7300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>10200</v>
       </c>
       <c r="J27" s="3">
         <v>10200</v>
       </c>
       <c r="K27" s="3">
+        <v>10200</v>
+      </c>
+      <c r="L27" s="3">
         <v>11200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1900</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2478,17 +2539,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>3</v>
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>3</v>
@@ -2496,12 +2557,12 @@
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2750,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E32" s="3">
         <v>22900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>20200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>21100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>18800</v>
       </c>
       <c r="I32" s="3">
         <v>18800</v>
       </c>
       <c r="J32" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K32" s="3">
         <v>17900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>10300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>10200</v>
-      </c>
-      <c r="V32" s="3">
-        <v>9600</v>
       </c>
       <c r="W32" s="3">
         <v>9600</v>
       </c>
       <c r="X32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="Y32" s="3">
         <v>18700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>9600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>10400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>7300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>7000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>7500</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E33" s="3">
         <v>7300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>10200</v>
       </c>
       <c r="J33" s="3">
         <v>10200</v>
       </c>
       <c r="K33" s="3">
+        <v>10200</v>
+      </c>
+      <c r="L33" s="3">
         <v>11200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1900</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E35" s="3">
         <v>7300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>10200</v>
       </c>
       <c r="J35" s="3">
         <v>10200</v>
       </c>
       <c r="K35" s="3">
+        <v>10200</v>
+      </c>
+      <c r="L35" s="3">
         <v>11200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1900</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,80 +3268,81 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E41" s="3">
         <v>18600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>14800</v>
       </c>
       <c r="H41" s="3">
         <v>14800</v>
       </c>
       <c r="I41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J41" s="3">
         <v>15000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>42900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9600</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3268,80 +3355,83 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E42" s="3">
         <v>100700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>125900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>60500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>22500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>236400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>299100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>140700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>300600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>289200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>295600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>128500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>185400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>184100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>165300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>104300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>44000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>67300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>26700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>24300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>29700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>58900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>35500</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3444,11 @@
       <c r="AD42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3440,8 +3533,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,8 +3622,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3612,8 +3711,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3698,8 +3800,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,70 +3889,73 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E48" s="3">
         <v>5500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>2800</v>
       </c>
       <c r="X48" s="3">
         <v>2800</v>
@@ -3855,8 +3963,8 @@
       <c r="Y48" s="3">
         <v>2800</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>3</v>
+      <c r="Z48" s="3">
+        <v>2800</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>3</v>
@@ -3870,8 +3978,11 @@
       <c r="AD48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4245,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4137,58 +4257,58 @@
         <v>13600</v>
       </c>
       <c r="E52" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F52" s="3">
         <v>12900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>7400</v>
       </c>
       <c r="M52" s="3">
         <v>7400</v>
       </c>
       <c r="N52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="O52" s="3">
         <v>6800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>3600</v>
       </c>
       <c r="P52" s="3">
         <v>3600</v>
       </c>
       <c r="Q52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R52" s="3">
         <v>4000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3600</v>
-      </c>
-      <c r="V52" s="3">
-        <v>3700</v>
       </c>
       <c r="W52" s="3">
         <v>3700</v>
@@ -4197,11 +4317,11 @@
         <v>3700</v>
       </c>
       <c r="Y52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Z52" s="3">
         <v>3600</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,80 +4423,83 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2272500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2227900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2245300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2123700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2009400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2154800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2122500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2055300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2169600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2151900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2091900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1876600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1879000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1822400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1507800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1427600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1311400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1234200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1123800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1105100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1072900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1067800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1017600</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4386,8 +4512,11 @@
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,80 +4580,81 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>2000</v>
       </c>
       <c r="U57" s="3">
         <v>2000</v>
       </c>
       <c r="V57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1400</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4536,8 +4667,11 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4622,68 +4756,71 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4693,8 +4830,8 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
@@ -4708,8 +4845,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4794,8 +4934,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4830,16 +4973,16 @@
         <v>12100</v>
       </c>
       <c r="N61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="O61" s="3">
         <v>14000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17400</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>15400</v>
       </c>
       <c r="R61" s="3">
         <v>15400</v>
@@ -4860,14 +5003,14 @@
         <v>15400</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>15400</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -4880,8 +5023,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,80 +5379,83 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2029600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1990400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2010800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1899600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1795400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1947500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1921000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1857400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1980500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1974600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1924800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1717300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1729700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1680300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1371800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1294300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1183600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1111000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1005200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>990500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>966200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>980800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>934200</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5310,8 +5468,11 @@
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,80 +5857,83 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E72" s="3">
         <v>197500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>191100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>182400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>174900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>164800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>153900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>144500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>135900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>125400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>115800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>106900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>97600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>89200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>84400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>81600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>77100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>72900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>68900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>65700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>62500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>59300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>56200</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5772,8 +5946,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,80 +6213,83 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>242900</v>
+      </c>
+      <c r="E76" s="3">
         <v>237400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>234500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>224000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>214000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>207300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>201500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>197900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>189100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>177200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>167000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>159300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>149400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>142100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>136100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>133300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>127800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>123100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>118600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>114600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>106700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>87000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>83400</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6116,8 +6302,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E81" s="3">
         <v>7300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>10200</v>
       </c>
       <c r="J81" s="3">
         <v>10200</v>
       </c>
       <c r="K81" s="3">
+        <v>10200</v>
+      </c>
+      <c r="L81" s="3">
         <v>11200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1900</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6423,43 +6622,43 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>-700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>-500</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
       </c>
       <c r="N83" s="3">
+        <v>500</v>
+      </c>
+      <c r="O83" s="3">
         <v>-600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -6474,31 +6673,34 @@
         <v>300</v>
       </c>
       <c r="W83" s="3">
+        <v>300</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>300</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB83" s="3">
         <v>200</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E89" s="3">
         <v>8400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>29500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>54600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>41300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-14800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-21500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>15100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>12900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>6800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4700</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,56 +7265,57 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -7104,35 +7325,38 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-400</v>
       </c>
       <c r="Z91" s="3">
         <v>-400</v>
       </c>
       <c r="AA91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-300</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-58700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-68000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-77700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-108800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>56100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-45900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-85300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-92600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-86000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-34000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-249500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-57300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-81700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-42500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-43400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-33800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-32300</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,31 +7654,32 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-800</v>
       </c>
       <c r="G96" s="3">
         <v>-800</v>
       </c>
       <c r="H96" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I96" s="3">
         <v>-700</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,94 +8008,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>108300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>105300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-151900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>25600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>65100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-124300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>54400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>209100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>48700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>304400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>73000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>109700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>72100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>105200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>27000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>33300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-10600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>22700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>16600</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,90 +8186,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>60000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-213800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-62900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>130400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-140600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>171100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-58600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>24800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>60000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>59700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>41200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-28000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>16400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>12700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-10900</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
